--- a/Results/Breguets_Range/RF_Confidence_Scores_Normalized.xlsx
+++ b/Results/Breguets_Range/RF_Confidence_Scores_Normalized.xlsx
@@ -460,67 +460,67 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7328145248342572</v>
+        <v>0.1839054330529666</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7144175643662937</v>
+        <v>0.1860195498977041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01839696046796357</v>
+        <v>0.002114116844737474</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9819353737470801</v>
+        <v>0.9978903432162058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.010196633885595</v>
+        <v>0.09297567629006591</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9599823138499777</v>
+        <v>0.07621277563082525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05021432003561754</v>
+        <v>0.01676290065924066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9521865974614453</v>
+        <v>0.9835134615470607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9775634445854378</v>
+        <v>0.106615139804501</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8671816817776549</v>
+        <v>0.1297453966810637</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1103817628077829</v>
+        <v>0.02313025687656269</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9005911601711969</v>
+        <v>0.9773926567794258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.059146417835831</v>
+        <v>0.1157081154807911</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.188961244871857</v>
+        <v>0.1473744032734711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1298148270360251</v>
+        <v>0.03166628779268006</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8851007935728871</v>
+        <v>0.9693056871515766</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3126622125947304</v>
+        <v>0.3009774948852012</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04690567723157352</v>
+        <v>0.3740622868833829</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2657565353631569</v>
+        <v>0.07308479199818169</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7900413484439098</v>
+        <v>0.9318928079652578</v>
       </c>
     </row>
     <row r="7">
@@ -545,50 +545,50 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4962239024081158</v>
+        <v>0.2498295067060696</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1982420926110536</v>
+        <v>0.3262673334848828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2979818097970622</v>
+        <v>0.07643782677881322</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7704268214331513</v>
+        <v>0.9289900216461645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5370153890333127</v>
+        <v>0.9204364628324617</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09626337604806152</v>
+        <v>0.7962036826551493</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4407520129852512</v>
+        <v>0.1242327801773124</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6940819731551101</v>
+        <v>0.8894955009604696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.910473808478493</v>
+        <v>0.238463287110707</v>
       </c>
       <c r="C9" t="n">
-        <v>1.45299728597691</v>
+        <v>0.3638326892475567</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4574765225015827</v>
+        <v>0.1253694021368498</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6861173985043825</v>
+        <v>0.8885971114028883</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Breguets_Range/RF_Confidence_Scores_Normalized.xlsx
+++ b/Results/Breguets_Range/RF_Confidence_Scores_Normalized.xlsx
@@ -457,70 +457,70 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1839054330529666</v>
+        <v>0.06265060240963854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1860195498977041</v>
+        <v>0.05824440619621342</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002114116844737474</v>
+        <v>0.004406196213425126</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9978903432162058</v>
+        <v>0.9956131331825347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09297567629006591</v>
+        <v>0.1349397590361446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07621277563082525</v>
+        <v>0.1482788296041309</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01676290065924066</v>
+        <v>0.01333907056798633</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9835134615470607</v>
+        <v>0.986836518046709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.106615139804501</v>
+        <v>0.03855421686746985</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1297453966810637</v>
+        <v>0.05538726333907053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02313025687656269</v>
+        <v>0.01683304647160069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9773926567794258</v>
+        <v>0.9834456142726565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1157081154807911</v>
+        <v>0.05301204819277108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1473744032734711</v>
+        <v>0.07869879518072288</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03166628779268006</v>
+        <v>0.0256867469879518</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9693056871515766</v>
+        <v>0.9749565380820373</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3009774948852012</v>
+        <v>0.2590361445783131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3740622868833829</v>
+        <v>0.3011876075731499</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07308479199818169</v>
+        <v>0.04215146299483674</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9318928079652578</v>
+        <v>0.9595534195445009</v>
       </c>
     </row>
     <row r="7">
@@ -545,50 +545,50 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2498295067060696</v>
+        <v>0.2048192771084338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3262673334848828</v>
+        <v>0.2946643717728055</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07643782677881322</v>
+        <v>0.08984509466437177</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9289900216461645</v>
+        <v>0.9175615919140871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9204364628324617</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7962036826551493</v>
+        <v>0.326419965576592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1242327801773124</v>
+        <v>0.1336488812392426</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8894955009604696</v>
+        <v>0.8821073407727928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>0.238463287110707</v>
+        <v>0.9156626506024095</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3638326892475567</v>
+        <v>0.7645438898450942</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1253694021368498</v>
+        <v>0.1511187607573152</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8885971114028883</v>
+        <v>0.8687200956937797</v>
       </c>
     </row>
   </sheetData>
